--- a/Experiments/Part2-Mix/DocPop-PeerLikeSim/Setting2 num-of-doc-likes/Grahps.xlsx
+++ b/Experiments/Part2-Mix/DocPop-PeerLikeSim/Setting2 num-of-doc-likes/Grahps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="4140" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,20 +651,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135791560"/>
-        <c:axId val="-2136967240"/>
+        <c:axId val="2094658472"/>
+        <c:axId val="2094491688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135791560"/>
+        <c:axId val="2094658472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136967240"/>
+        <c:crossAx val="2094491688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,18 +696,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136967240"/>
+        <c:axId val="2094491688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Document Likes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135791560"/>
+        <c:crossAx val="2094658472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AE1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
